--- a/SIMPER_data.xlsx
+++ b/SIMPER_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17193\Downloads\salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0356982-4F25-4AE9-88D5-A34215A9DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF954AA0-D5E1-4B57-AEB4-0A56FD57725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Influential Species" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="80">
   <si>
     <t>average</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Lutjanidae_Lutjanus_rivulatus</t>
-  </si>
-  <si>
-    <t>Cheilinus</t>
-  </si>
-  <si>
-    <t>undulatus_Cheilinus_undulatus</t>
   </si>
   <si>
     <t>Serranidae_Aethaloperca_rogaa</t>
@@ -1115,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,7 +1122,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1143,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1155,16 +1149,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -1378,7 +1372,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="P6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1422,7 +1416,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1550,7 +1544,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>2.7890000000000002E-2</v>
@@ -1565,7 +1559,7 @@
         <v>0.48010000000000003</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <v>2.7830000000000001E-2</v>
@@ -1591,7 +1585,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2.409E-2</v>
@@ -1606,7 +1600,7 @@
         <v>0.50780000000000003</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <v>2.632E-2</v>
@@ -1630,12 +1624,12 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2.3519999999999999E-2</v>
@@ -1650,7 +1644,7 @@
         <v>0.53480000000000005</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>2.5700000000000001E-2</v>
@@ -1674,12 +1668,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2.307E-2</v>
@@ -1694,7 +1688,7 @@
         <v>0.56140000000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>2.537E-2</v>
@@ -1718,12 +1712,12 @@
         <v>0.05</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>2.2880000000000001E-2</v>
@@ -1738,7 +1732,7 @@
         <v>0.5877</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>2.4670000000000001E-2</v>
@@ -1762,12 +1756,12 @@
         <v>2E-3</v>
       </c>
       <c r="P15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2.1729999999999999E-2</v>
@@ -1782,7 +1776,7 @@
         <v>0.61260000000000003</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>2.3220000000000001E-2</v>
@@ -1808,7 +1802,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>2.051E-2</v>
@@ -1823,7 +1817,7 @@
         <v>0.63619999999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>2.2460000000000001E-2</v>
@@ -1849,7 +1843,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>1.959E-2</v>
@@ -1864,7 +1858,7 @@
         <v>0.65869999999999995</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <v>2.1680000000000001E-2</v>
@@ -1888,12 +1882,12 @@
         <v>1E-3</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>1.881E-2</v>
@@ -1908,7 +1902,7 @@
         <v>0.6804</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I19">
         <v>2.0029999999999999E-2</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1.7049999999999999E-2</v>
@@ -1949,7 +1943,7 @@
         <v>0.7</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20">
         <v>1.746E-2</v>
@@ -1973,12 +1967,12 @@
         <v>4.7E-2</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1.6410000000000001E-2</v>
@@ -1993,7 +1987,7 @@
         <v>0.71879999999999999</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21">
         <v>1.6420000000000001E-2</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>1.6379999999999999E-2</v>
@@ -2034,7 +2028,7 @@
         <v>0.73770000000000002</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>1.6310000000000002E-2</v>
@@ -2060,7 +2054,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>1.5910000000000001E-2</v>
@@ -2075,7 +2069,7 @@
         <v>0.75590000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23">
         <v>1.5970000000000002E-2</v>
@@ -2101,7 +2095,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1.5859999999999999E-2</v>
@@ -2116,7 +2110,7 @@
         <v>0.7742</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <v>1.562E-2</v>
@@ -2142,7 +2136,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1.448E-2</v>
@@ -2157,7 +2151,7 @@
         <v>0.79079999999999995</v>
       </c>
       <c r="H25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I25">
         <v>1.4840000000000001E-2</v>
@@ -2183,7 +2177,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>1.3599999999999999E-2</v>
@@ -2198,7 +2192,7 @@
         <v>0.80649999999999999</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I26">
         <v>1.472E-2</v>
@@ -2222,12 +2216,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="P26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1.2409999999999999E-2</v>
@@ -2242,7 +2236,7 @@
         <v>0.82069999999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I27">
         <v>1.3100000000000001E-2</v>
@@ -2271,7 +2265,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>1.153E-2</v>
@@ -2286,7 +2280,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28">
         <v>1.0840000000000001E-2</v>
@@ -2312,7 +2306,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>9.7800000000000005E-3</v>
@@ -2327,7 +2321,7 @@
         <v>0.84519999999999995</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I29">
         <v>9.5999999999999992E-3</v>
@@ -2353,7 +2347,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>9.1900000000000003E-3</v>
@@ -2368,7 +2362,7 @@
         <v>0.85580000000000001</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I30">
         <v>9.4299999999999991E-3</v>
@@ -2394,7 +2388,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>8.5199999999999998E-3</v>
@@ -2409,7 +2403,7 @@
         <v>0.86560000000000004</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I31">
         <v>8.1799999999999998E-3</v>
@@ -2435,7 +2429,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>8.0199999999999994E-3</v>
@@ -2450,7 +2444,7 @@
         <v>0.87480000000000002</v>
       </c>
       <c r="H32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32">
         <v>8.1399999999999997E-3</v>
@@ -2479,7 +2473,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>7.5799999999999999E-3</v>
@@ -2494,7 +2488,7 @@
         <v>0.88349999999999995</v>
       </c>
       <c r="H33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I33">
         <v>7.9500000000000005E-3</v>
@@ -2518,12 +2512,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>7.1199999999999996E-3</v>
@@ -2538,7 +2532,7 @@
         <v>0.89170000000000005</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I34">
         <v>7.6699999999999997E-3</v>
@@ -2564,7 +2558,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>6.7600000000000004E-3</v>
@@ -2579,7 +2573,7 @@
         <v>0.89949999999999997</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I35">
         <v>7.1500000000000001E-3</v>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>6.7299999999999999E-3</v>
@@ -2620,7 +2614,7 @@
         <v>0.90720000000000001</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I36">
         <v>6.77E-3</v>
@@ -2646,7 +2640,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>6.45E-3</v>
@@ -2661,7 +2655,7 @@
         <v>0.91469999999999996</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37">
         <v>6.3400000000000001E-3</v>
@@ -2687,7 +2681,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>6.3899999999999998E-3</v>
@@ -2702,7 +2696,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I38">
         <v>6.0099999999999997E-3</v>
@@ -2728,7 +2722,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>5.0600000000000003E-3</v>
@@ -2743,7 +2737,7 @@
         <v>0.92779999999999996</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39">
         <v>5.5599999999999998E-3</v>
@@ -2772,7 +2766,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>4.8399999999999997E-3</v>
@@ -2787,7 +2781,7 @@
         <v>0.93340000000000001</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I40">
         <v>4.7099999999999998E-3</v>
@@ -2816,7 +2810,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>4.7200000000000002E-3</v>
@@ -2831,7 +2825,7 @@
         <v>0.93879999999999997</v>
       </c>
       <c r="H41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I41">
         <v>4.6800000000000001E-3</v>
@@ -2857,7 +2851,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>4.4299999999999999E-3</v>
@@ -2872,7 +2866,7 @@
         <v>0.94389999999999996</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I42">
         <v>4.6100000000000004E-3</v>
@@ -2898,7 +2892,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43">
         <v>4.3200000000000001E-3</v>
@@ -2913,7 +2907,7 @@
         <v>0.94889999999999997</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I43">
         <v>4.4000000000000003E-3</v>
@@ -2939,7 +2933,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>4.2300000000000003E-3</v>
@@ -2954,7 +2948,7 @@
         <v>0.95369999999999999</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I44">
         <v>4.3200000000000001E-3</v>
@@ -2980,7 +2974,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>4.1900000000000001E-3</v>
@@ -2995,7 +2989,7 @@
         <v>0.95850000000000002</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>4.1799999999999997E-3</v>
@@ -3021,7 +3015,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>4.13E-3</v>
@@ -3036,7 +3030,7 @@
         <v>0.96330000000000005</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I46">
         <v>3.98E-3</v>
@@ -3062,7 +3056,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>3.6900000000000001E-3</v>
@@ -3077,7 +3071,7 @@
         <v>0.96750000000000003</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I47">
         <v>3.98E-3</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>3.46E-3</v>
@@ -3118,7 +3112,7 @@
         <v>0.97150000000000003</v>
       </c>
       <c r="H48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I48">
         <v>3.7699999999999999E-3</v>
@@ -3144,7 +3138,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>3.46E-3</v>
@@ -3159,7 +3153,7 @@
         <v>0.97550000000000003</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I49">
         <v>3.3700000000000002E-3</v>
@@ -3185,7 +3179,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50">
         <v>3.1700000000000001E-3</v>
@@ -3200,7 +3194,7 @@
         <v>0.97909999999999997</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I50">
         <v>3.3E-3</v>
@@ -3226,7 +3220,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>3.1099999999999999E-3</v>
@@ -3241,7 +3235,7 @@
         <v>0.98270000000000002</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I51">
         <v>3.2000000000000002E-3</v>
@@ -3267,7 +3261,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>3.0200000000000001E-3</v>
@@ -3282,7 +3276,7 @@
         <v>0.98619999999999997</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I52">
         <v>2.96E-3</v>
@@ -3308,7 +3302,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>2.2399999999999998E-3</v>
@@ -3323,7 +3317,7 @@
         <v>0.98870000000000002</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I53">
         <v>2.0999999999999999E-3</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>2.2399999999999998E-3</v>
@@ -3364,7 +3358,7 @@
         <v>0.99129999999999996</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <v>2.0999999999999999E-3</v>
@@ -3390,7 +3384,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1.7899999999999999E-3</v>
@@ -3405,7 +3399,7 @@
         <v>0.99339999999999995</v>
       </c>
       <c r="H55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I55">
         <v>1.91E-3</v>
@@ -3431,7 +3425,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56">
         <v>1.6800000000000001E-3</v>
@@ -3446,7 +3440,7 @@
         <v>0.99529999999999996</v>
       </c>
       <c r="H56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I56">
         <v>1.7899999999999999E-3</v>
@@ -3472,7 +3466,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>1.5E-3</v>
@@ -3487,7 +3481,7 @@
         <v>0.997</v>
       </c>
       <c r="H57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I57">
         <v>1.5900000000000001E-3</v>
@@ -3513,7 +3507,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>1.14E-3</v>
@@ -3528,7 +3522,7 @@
         <v>0.99839999999999995</v>
       </c>
       <c r="H58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I58">
         <v>1.2099999999999999E-3</v>
@@ -3554,7 +3548,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>8.9999999999999998E-4</v>
@@ -3569,7 +3563,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I59">
         <v>8.4000000000000003E-4</v>
@@ -3595,7 +3589,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>5.2999999999999998E-4</v>
@@ -3610,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I60">
         <v>5.0000000000000001E-4</v>
@@ -3641,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3653,9 +3647,9 @@
     <col min="8" max="8" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3670,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -3682,19 +3676,19 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3735,10 +3729,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3779,10 +3773,10 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3823,7 +3817,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <v>5.271E-2</v>
@@ -3864,10 +3858,10 @@
         <v>1E-3</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3908,9 +3902,9 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>3.6360000000000003E-2</v>
@@ -3949,9 +3943,9 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>3.4680000000000002E-2</v>
@@ -3966,7 +3960,7 @@
         <v>0.435</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>3.3579999999999999E-2</v>
@@ -3990,9 +3984,9 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2.9929999999999998E-2</v>
@@ -4007,39 +4001,36 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>3.0370000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.657E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.6522</v>
+      </c>
+      <c r="L9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.1053</v>
+      </c>
+      <c r="N9">
+        <v>0.505</v>
+      </c>
+      <c r="O9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>15</v>
-      </c>
-      <c r="J9">
-        <v>3.0370000000000001E-2</v>
-      </c>
-      <c r="K9">
-        <v>4.657E-2</v>
-      </c>
-      <c r="L9">
-        <v>0.6522</v>
-      </c>
-      <c r="M9">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="N9">
-        <v>0.1053</v>
-      </c>
-      <c r="O9">
-        <v>0.505</v>
-      </c>
-      <c r="P9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
       </c>
       <c r="B10">
         <v>2.9600000000000001E-2</v>
@@ -4054,7 +4045,7 @@
         <v>0.51</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>2.9989999999999999E-2</v>
@@ -4078,9 +4069,9 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2.7189999999999999E-2</v>
@@ -4095,7 +4086,7 @@
         <v>0.54400000000000004</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11">
         <v>2.809E-2</v>
@@ -4122,9 +4113,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>2.571E-2</v>
@@ -4139,7 +4130,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>2.7470000000000001E-2</v>
@@ -4163,9 +4154,9 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>2.5389999999999999E-2</v>
@@ -4180,7 +4171,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13">
         <v>2.6950000000000002E-2</v>
@@ -4204,9 +4195,9 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>2.5069999999999999E-2</v>
@@ -4221,7 +4212,7 @@
         <v>0.64</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14">
         <v>2.3259999999999999E-2</v>
@@ -4245,9 +4236,9 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2.0219999999999998E-2</v>
@@ -4286,12 +4277,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1.9130000000000001E-2</v>
@@ -4306,7 +4297,7 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I16">
         <v>1.8509999999999999E-2</v>
@@ -4347,7 +4338,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>1.7399999999999999E-2</v>
@@ -4373,7 +4364,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1.9120000000000002E-2</v>
@@ -4388,7 +4379,7 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>1.729E-2</v>
@@ -4412,12 +4403,12 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>1.7569999999999999E-2</v>
@@ -4432,7 +4423,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>1.685E-2</v>
@@ -4458,7 +4449,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1.421E-2</v>
@@ -4473,7 +4464,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20">
         <v>1.592E-2</v>
@@ -4499,7 +4490,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1.3990000000000001E-2</v>
@@ -4514,7 +4505,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21">
         <v>1.176E-2</v>
@@ -4540,7 +4531,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>1.38E-2</v>
@@ -4555,7 +4546,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I22">
         <v>1.1650000000000001E-2</v>
@@ -4581,7 +4572,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1.3180000000000001E-2</v>
@@ -4596,7 +4587,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23">
         <v>1.158E-2</v>
@@ -4620,12 +4611,12 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>1.196E-2</v>
@@ -4640,7 +4631,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>1.158E-2</v>
@@ -4666,7 +4657,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>9.9799999999999993E-3</v>
@@ -4681,7 +4672,7 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <v>1.103E-2</v>
@@ -4707,7 +4698,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>9.9299999999999996E-3</v>
@@ -4722,7 +4713,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>9.92E-3</v>
@@ -4763,7 +4754,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27">
         <v>9.6600000000000002E-3</v>
@@ -4792,7 +4783,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>8.8000000000000005E-3</v>
@@ -4874,7 +4865,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>7.9600000000000001E-3</v>
@@ -4889,7 +4880,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I30">
         <v>7.6E-3</v>
@@ -4915,7 +4906,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>7.8300000000000002E-3</v>
@@ -4930,7 +4921,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I31">
         <v>7.1999999999999998E-3</v>
@@ -4959,7 +4950,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>7.6600000000000001E-3</v>
@@ -4974,7 +4965,7 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I32">
         <v>6.8300000000000001E-3</v>
@@ -5000,7 +4991,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33">
         <v>6.5700000000000003E-3</v>
@@ -5015,7 +5006,7 @@
         <v>0.94</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I33">
         <v>6.8300000000000001E-3</v>
@@ -5041,7 +5032,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>6.4799999999999996E-3</v>
@@ -5056,7 +5047,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34">
         <v>6.43E-3</v>
@@ -5082,7 +5073,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>5.9899999999999997E-3</v>
@@ -5097,7 +5088,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I35">
         <v>5.4099999999999999E-3</v>
@@ -5123,7 +5114,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>5.9699999999999996E-3</v>
@@ -5138,7 +5129,7 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I36">
         <v>4.8700000000000002E-3</v>
@@ -5164,7 +5155,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>4.0499999999999998E-3</v>
@@ -5179,7 +5170,7 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I37">
         <v>3.2499999999999999E-3</v>
@@ -5205,7 +5196,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>4.0499999999999998E-3</v>
@@ -5220,7 +5211,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="H38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I38">
         <v>3.2499999999999999E-3</v>
@@ -5246,7 +5237,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>3.3400000000000001E-3</v>
@@ -5261,7 +5252,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39">
         <v>2.7000000000000001E-3</v>
@@ -5287,7 +5278,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>3.3400000000000001E-3</v>
@@ -5302,7 +5293,7 @@
         <v>0.98199999999999998</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I40">
         <v>2.7000000000000001E-3</v>
@@ -5328,7 +5319,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41">
         <v>3.16E-3</v>
@@ -5343,7 +5334,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I41">
         <v>2.5600000000000002E-3</v>
@@ -5369,7 +5360,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>2.8500000000000001E-3</v>
@@ -5413,7 +5404,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43">
         <v>2.2100000000000002E-3</v>
@@ -5428,7 +5419,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I43">
         <v>2.32E-3</v>
@@ -5454,7 +5445,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>2.2100000000000002E-3</v>
@@ -5469,7 +5460,7 @@
         <v>0.995</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I44">
         <v>1.81E-3</v>
@@ -5495,7 +5486,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>2.2100000000000002E-3</v>
@@ -5510,7 +5501,7 @@
         <v>0.998</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I45">
         <v>1.81E-3</v>
@@ -5551,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <v>1.81E-3</v>
@@ -5596,7 +5587,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5611,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -5623,16 +5614,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -5676,7 +5667,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -5860,7 +5851,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7">
         <v>3.9010000000000003E-2</v>
@@ -5884,12 +5875,12 @@
         <v>2.3E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>3.2469999999999999E-2</v>
@@ -5904,7 +5895,7 @@
         <v>0.48299999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>3.6760000000000001E-2</v>
@@ -5928,12 +5919,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>3.2289999999999999E-2</v>
@@ -5948,7 +5939,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>3.6409999999999998E-2</v>
@@ -5974,7 +5965,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>3.015E-2</v>
@@ -6015,7 +6006,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>2.879E-2</v>
@@ -6030,7 +6021,7 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11">
         <v>3.4569999999999997E-2</v>
@@ -6054,12 +6045,12 @@
         <v>2E-3</v>
       </c>
       <c r="P11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2.5940000000000001E-2</v>
@@ -6074,7 +6065,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12">
         <v>2.9069999999999999E-2</v>
@@ -6100,7 +6091,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>2.3779999999999999E-2</v>
@@ -6115,7 +6106,7 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>2.5739999999999999E-2</v>
@@ -6156,7 +6147,7 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>2.1569999999999999E-2</v>
@@ -6180,12 +6171,12 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="P14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>2.2100000000000002E-2</v>
@@ -6200,7 +6191,7 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I15">
         <v>2.1569999999999999E-2</v>
@@ -6224,12 +6215,12 @@
         <v>2.4E-2</v>
       </c>
       <c r="P15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2.0729999999999998E-2</v>
@@ -6270,7 +6261,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>1.8110000000000001E-2</v>
@@ -6285,7 +6276,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>2.0060000000000001E-2</v>
@@ -6314,7 +6305,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1.7829999999999999E-2</v>
@@ -6329,7 +6320,7 @@
         <v>0.752</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>1.7569999999999999E-2</v>
@@ -6355,7 +6346,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>1.485E-2</v>
@@ -6370,7 +6361,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>1.6840000000000001E-2</v>
@@ -6396,7 +6387,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>1.4370000000000001E-2</v>
@@ -6411,7 +6402,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20">
         <v>1.6559999999999998E-2</v>
@@ -6435,12 +6426,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1.431E-2</v>
@@ -6455,7 +6446,7 @@
         <v>0.8</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>1.6559999999999998E-2</v>
@@ -6479,7 +6470,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="P21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -6525,7 +6516,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>1.306E-2</v>
@@ -6540,7 +6531,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I23">
         <v>1.384E-2</v>
@@ -6566,7 +6557,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>1.133E-2</v>
@@ -6581,7 +6572,7 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>1.346E-2</v>
@@ -6607,7 +6598,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>1.125E-2</v>
@@ -6622,7 +6613,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25">
         <v>1.154E-2</v>
@@ -6651,7 +6642,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>1.125E-2</v>
@@ -6666,7 +6657,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>1.1509999999999999E-2</v>
@@ -6692,7 +6683,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1.0710000000000001E-2</v>
@@ -6707,7 +6698,7 @@
         <v>0.878</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>1.1169999999999999E-2</v>
@@ -6733,7 +6724,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>1.057E-2</v>
@@ -6748,7 +6739,7 @@
         <v>0.89</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I28">
         <v>9.7800000000000005E-3</v>
@@ -6774,7 +6765,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29">
         <v>8.6800000000000002E-3</v>
@@ -6789,7 +6780,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29">
         <v>8.9800000000000001E-3</v>
@@ -6813,12 +6804,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>8.0000000000000002E-3</v>
@@ -6833,7 +6824,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I30">
         <v>8.5500000000000003E-3</v>
@@ -6859,7 +6850,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>8.0000000000000002E-3</v>
@@ -6874,7 +6865,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <v>7.3699999999999998E-3</v>
@@ -6900,7 +6891,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32">
         <v>6.8700000000000002E-3</v>
@@ -6939,12 +6930,12 @@
         <v>0.03</v>
       </c>
       <c r="P32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>6.7200000000000003E-3</v>
@@ -6959,7 +6950,7 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I33">
         <v>6.4700000000000001E-3</v>
@@ -6985,7 +6976,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34">
         <v>6.5300000000000002E-3</v>
@@ -7000,7 +6991,7 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34">
         <v>6.4099999999999999E-3</v>
@@ -7026,7 +7017,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>6.5300000000000002E-3</v>
@@ -7041,7 +7032,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I35">
         <v>6.0299999999999998E-3</v>
@@ -7067,7 +7058,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>6.28E-3</v>
@@ -7082,7 +7073,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I36">
         <v>5.3E-3</v>
@@ -7111,7 +7102,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>4.8999999999999998E-3</v>
@@ -7126,7 +7117,7 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I37">
         <v>5.1000000000000004E-3</v>
@@ -7152,7 +7143,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>4.8999999999999998E-3</v>
@@ -7167,7 +7158,7 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I38">
         <v>5.0099999999999997E-3</v>
@@ -7211,7 +7202,7 @@
         <v>0.97</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I39">
         <v>4.8900000000000002E-3</v>
@@ -7237,7 +7228,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>4.4999999999999997E-3</v>
@@ -7252,7 +7243,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I40">
         <v>4.1900000000000001E-3</v>
@@ -7281,7 +7272,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>4.4799999999999996E-3</v>
@@ -7296,7 +7287,7 @@
         <v>0.98</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I41">
         <v>3.65E-3</v>
@@ -7322,7 +7313,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>3.8899999999999998E-3</v>
@@ -7337,7 +7328,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I42">
         <v>3.5799999999999998E-3</v>
@@ -7363,7 +7354,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>3.8400000000000001E-3</v>
@@ -7378,7 +7369,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I43">
         <v>3.5799999999999998E-3</v>
@@ -7404,7 +7395,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3.5899999999999999E-3</v>
@@ -7419,7 +7410,7 @@
         <v>0.99199999999999999</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I44">
         <v>3.2699999999999999E-3</v>
@@ -7445,7 +7436,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>3.0100000000000001E-3</v>
@@ -7460,7 +7451,7 @@
         <v>0.995</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I45">
         <v>2.8E-3</v>
@@ -7486,7 +7477,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>1.8600000000000001E-3</v>
@@ -7501,7 +7492,7 @@
         <v>0.997</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I46">
         <v>1.7700000000000001E-3</v>
@@ -7530,7 +7521,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>1.2999999999999999E-3</v>
@@ -7545,7 +7536,7 @@
         <v>0.999</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I47">
         <v>1.3699999999999999E-3</v>
@@ -7571,7 +7562,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>1.09E-3</v>
@@ -7586,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I48">
         <v>8.0999999999999996E-4</v>
@@ -7631,7 +7622,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7646,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -7658,16 +7649,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -7711,7 +7702,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -7772,7 +7763,7 @@
         <v>0.219</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>4.564E-2</v>
@@ -7798,7 +7789,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4.267E-2</v>
@@ -7839,7 +7830,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4.2569999999999997E-2</v>
@@ -7936,7 +7927,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>3.78E-2</v>
@@ -7962,7 +7953,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>3.5810000000000002E-2</v>
@@ -7977,7 +7968,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>3.671E-2</v>
@@ -8003,7 +7994,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>3.1800000000000002E-2</v>
@@ -8018,7 +8009,7 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>3.4770000000000002E-2</v>
@@ -8042,12 +8033,12 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2.9409999999999999E-2</v>
@@ -8062,7 +8053,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>3.141E-2</v>
@@ -8091,7 +8082,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2.7349999999999999E-2</v>
@@ -8106,7 +8097,7 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>3.048E-2</v>
@@ -8132,7 +8123,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2.6270000000000002E-2</v>
@@ -8147,7 +8138,7 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>2.7799999999999998E-2</v>
@@ -8173,7 +8164,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2.4070000000000001E-2</v>
@@ -8188,7 +8179,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14">
         <v>2.4250000000000001E-2</v>
@@ -8214,7 +8205,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.375E-2</v>
@@ -8229,7 +8220,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>2.4070000000000001E-2</v>
@@ -8255,7 +8246,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2.3539999999999998E-2</v>
@@ -8270,7 +8261,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>2.1760000000000002E-2</v>
@@ -8296,7 +8287,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>2.1440000000000001E-2</v>
@@ -8311,7 +8302,7 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>1.9609999999999999E-2</v>
@@ -8337,7 +8328,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>2.0580000000000001E-2</v>
@@ -8352,7 +8343,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>1.9429999999999999E-2</v>
@@ -8393,7 +8384,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>1.8200000000000001E-2</v>
@@ -8419,7 +8410,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>1.546E-2</v>
@@ -8460,7 +8451,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>1.49E-2</v>
@@ -8475,7 +8466,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>1.5559999999999999E-2</v>
@@ -8501,7 +8492,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>1.3899999999999999E-2</v>
@@ -8516,7 +8507,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22">
         <v>1.4460000000000001E-2</v>
@@ -8542,7 +8533,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1.383E-2</v>
@@ -8557,7 +8548,7 @@
         <v>0.81</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23">
         <v>1.3440000000000001E-2</v>
@@ -8586,7 +8577,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1.363E-2</v>
@@ -8601,7 +8592,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>1.264E-2</v>
@@ -8627,7 +8618,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1.0659999999999999E-2</v>
@@ -8671,7 +8662,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>1.005E-2</v>
@@ -8686,7 +8677,7 @@
         <v>0.85</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26">
         <v>1.1509999999999999E-2</v>
@@ -8727,7 +8718,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>9.9699999999999997E-3</v>
@@ -8753,7 +8744,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>9.1400000000000006E-3</v>
@@ -8768,7 +8759,7 @@
         <v>0.872</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28">
         <v>9.1599999999999997E-3</v>
@@ -8794,7 +8785,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>8.6700000000000006E-3</v>
@@ -8809,7 +8800,7 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <v>8.8900000000000003E-3</v>
@@ -8835,7 +8826,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>8.3300000000000006E-3</v>
@@ -8850,7 +8841,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>7.8100000000000001E-3</v>
@@ -8876,7 +8867,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>7.4599999999999996E-3</v>
@@ -8891,7 +8882,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <v>7.2300000000000003E-3</v>
@@ -8958,7 +8949,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>6.9300000000000004E-3</v>
@@ -8973,7 +8964,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I33">
         <v>6.8900000000000003E-3</v>
@@ -8999,7 +8990,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>6.5599999999999999E-3</v>
@@ -9014,7 +9005,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I34">
         <v>6.3200000000000001E-3</v>
@@ -9040,7 +9031,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>6.5599999999999999E-3</v>
@@ -9055,7 +9046,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I35">
         <v>6.2700000000000004E-3</v>
@@ -9081,7 +9072,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.3200000000000001E-3</v>
@@ -9096,7 +9087,7 @@
         <v>0.94</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36">
         <v>5.4400000000000004E-3</v>
@@ -9122,7 +9113,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>6.2599999999999999E-3</v>
@@ -9137,7 +9128,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I37">
         <v>5.4099999999999999E-3</v>
@@ -9163,7 +9154,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>5.1900000000000002E-3</v>
@@ -9178,7 +9169,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I38">
         <v>5.1799999999999997E-3</v>
@@ -9219,7 +9210,7 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39">
         <v>4.5500000000000002E-3</v>
@@ -9245,7 +9236,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>5.0000000000000001E-3</v>
@@ -9286,7 +9277,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>4.5900000000000003E-3</v>
@@ -9301,7 +9292,7 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41">
         <v>4.1599999999999996E-3</v>
@@ -9327,7 +9318,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>3.7000000000000002E-3</v>
@@ -9342,7 +9333,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I42">
         <v>3.7599999999999999E-3</v>
@@ -9368,7 +9359,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>3.48E-3</v>
@@ -9383,7 +9374,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I43">
         <v>3.2399999999999998E-3</v>
@@ -9409,7 +9400,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3.48E-3</v>
@@ -9424,7 +9415,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I44">
         <v>2.9499999999999999E-3</v>
@@ -9450,7 +9441,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>3.48E-3</v>
@@ -9465,7 +9456,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I45">
         <v>2.7599999999999999E-3</v>
@@ -9491,7 +9482,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>3.1099999999999999E-3</v>
@@ -9506,7 +9497,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I46">
         <v>2.4399999999999999E-3</v>
@@ -9532,7 +9523,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>3.1099999999999999E-3</v>
@@ -9547,7 +9538,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I47">
         <v>2.4399999999999999E-3</v>
@@ -9573,7 +9564,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>2.3800000000000002E-3</v>
@@ -9588,7 +9579,7 @@
         <v>0.997</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I48">
         <v>1.8400000000000001E-3</v>
@@ -9614,7 +9605,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>2.3800000000000002E-3</v>
@@ -9629,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>1.8400000000000001E-3</v>
@@ -9663,8 +9654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9675,7 +9666,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -9690,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -9702,16 +9693,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -9755,7 +9746,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -9816,7 +9807,7 @@
         <v>0.219</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>4.564E-2</v>
@@ -9842,7 +9833,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4.267E-2</v>
@@ -9883,7 +9874,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4.2569999999999997E-2</v>
@@ -9980,7 +9971,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>3.78E-2</v>
@@ -10006,7 +9997,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>3.5810000000000002E-2</v>
@@ -10021,7 +10012,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>3.671E-2</v>
@@ -10047,7 +10038,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>3.1800000000000002E-2</v>
@@ -10062,7 +10053,7 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>3.4770000000000002E-2</v>
@@ -10086,12 +10077,12 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2.9409999999999999E-2</v>
@@ -10106,7 +10097,7 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>3.141E-2</v>
@@ -10135,7 +10126,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>2.7349999999999999E-2</v>
@@ -10150,7 +10141,7 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>3.048E-2</v>
@@ -10176,7 +10167,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2.6270000000000002E-2</v>
@@ -10191,7 +10182,7 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>2.7799999999999998E-2</v>
@@ -10217,7 +10208,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>2.4070000000000001E-2</v>
@@ -10232,7 +10223,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I14">
         <v>2.4250000000000001E-2</v>
@@ -10258,7 +10249,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.375E-2</v>
@@ -10273,7 +10264,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>2.4070000000000001E-2</v>
@@ -10299,7 +10290,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2.3539999999999998E-2</v>
@@ -10314,7 +10305,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>2.1760000000000002E-2</v>
@@ -10340,7 +10331,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>2.1440000000000001E-2</v>
@@ -10355,7 +10346,7 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17">
         <v>1.9609999999999999E-2</v>
@@ -10381,7 +10372,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>2.0580000000000001E-2</v>
@@ -10396,7 +10387,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18">
         <v>1.9429999999999999E-2</v>
@@ -10437,7 +10428,7 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>1.8200000000000001E-2</v>
@@ -10463,7 +10454,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>1.546E-2</v>
@@ -10504,7 +10495,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>1.49E-2</v>
@@ -10519,7 +10510,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21">
         <v>1.5559999999999999E-2</v>
@@ -10545,7 +10536,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>1.3899999999999999E-2</v>
@@ -10560,7 +10551,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22">
         <v>1.4460000000000001E-2</v>
@@ -10586,7 +10577,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>1.383E-2</v>
@@ -10601,7 +10592,7 @@
         <v>0.81</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23">
         <v>1.3440000000000001E-2</v>
@@ -10630,7 +10621,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1.363E-2</v>
@@ -10645,7 +10636,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>1.264E-2</v>
@@ -10671,7 +10662,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1.0659999999999999E-2</v>
@@ -10715,7 +10706,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>1.005E-2</v>
@@ -10730,7 +10721,7 @@
         <v>0.85</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I26">
         <v>1.1509999999999999E-2</v>
@@ -10771,7 +10762,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>9.9699999999999997E-3</v>
@@ -10797,7 +10788,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>9.1400000000000006E-3</v>
@@ -10812,7 +10803,7 @@
         <v>0.872</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28">
         <v>9.1599999999999997E-3</v>
@@ -10838,7 +10829,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>8.6700000000000006E-3</v>
@@ -10853,7 +10844,7 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I29">
         <v>8.8900000000000003E-3</v>
@@ -10879,7 +10870,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>8.3300000000000006E-3</v>
@@ -10894,7 +10885,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I30">
         <v>7.8100000000000001E-3</v>
@@ -10920,7 +10911,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>7.4599999999999996E-3</v>
@@ -10935,7 +10926,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I31">
         <v>7.2300000000000003E-3</v>
@@ -11002,7 +10993,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>6.9300000000000004E-3</v>
@@ -11017,7 +11008,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I33">
         <v>6.8900000000000003E-3</v>
@@ -11043,7 +11034,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>6.5599999999999999E-3</v>
@@ -11058,7 +11049,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I34">
         <v>6.3200000000000001E-3</v>
@@ -11084,7 +11075,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
         <v>6.5599999999999999E-3</v>
@@ -11099,7 +11090,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I35">
         <v>6.2700000000000004E-3</v>
@@ -11125,7 +11116,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>6.3200000000000001E-3</v>
@@ -11140,7 +11131,7 @@
         <v>0.94</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36">
         <v>5.4400000000000004E-3</v>
@@ -11166,7 +11157,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>6.2599999999999999E-3</v>
@@ -11181,7 +11172,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I37">
         <v>5.4099999999999999E-3</v>
@@ -11207,7 +11198,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>5.1900000000000002E-3</v>
@@ -11222,7 +11213,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I38">
         <v>5.1799999999999997E-3</v>
@@ -11263,7 +11254,7 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I39">
         <v>4.5500000000000002E-3</v>
@@ -11289,7 +11280,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>5.0000000000000001E-3</v>
@@ -11330,7 +11321,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>4.5900000000000003E-3</v>
@@ -11345,7 +11336,7 @@
         <v>0.97099999999999997</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41">
         <v>4.1599999999999996E-3</v>
@@ -11371,7 +11362,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>3.7000000000000002E-3</v>
@@ -11386,7 +11377,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I42">
         <v>3.7599999999999999E-3</v>
@@ -11412,7 +11403,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>3.48E-3</v>
@@ -11427,7 +11418,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I43">
         <v>3.2399999999999998E-3</v>
@@ -11453,7 +11444,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>3.48E-3</v>
@@ -11468,7 +11459,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I44">
         <v>2.9499999999999999E-3</v>
@@ -11494,7 +11485,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>3.48E-3</v>
@@ -11509,7 +11500,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I45">
         <v>2.7599999999999999E-3</v>
@@ -11535,7 +11526,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>3.1099999999999999E-3</v>
@@ -11550,7 +11541,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I46">
         <v>2.4399999999999999E-3</v>
@@ -11576,7 +11567,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>3.1099999999999999E-3</v>
@@ -11591,7 +11582,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I47">
         <v>2.4399999999999999E-3</v>
@@ -11617,7 +11608,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>2.3800000000000002E-3</v>
@@ -11632,7 +11623,7 @@
         <v>0.997</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I48">
         <v>1.8400000000000001E-3</v>
@@ -11658,7 +11649,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>2.3800000000000002E-3</v>
@@ -11673,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>1.8400000000000001E-3</v>

--- a/SIMPER_data.xlsx
+++ b/SIMPER_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17193\Downloads\salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF954AA0-D5E1-4B57-AEB4-0A56FD57725E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A1135-406E-4ABD-8F4A-E62B1A1EEEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Influential Species" sheetId="2" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1106,10 +1106,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3634,11 +3634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5572,7 +5572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7607,7 +7607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9651,7 +9651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
